--- a/biology/Médecine/Exosome_(vésicule)/Exosome_(vésicule).xlsx
+++ b/biology/Médecine/Exosome_(vésicule)/Exosome_(vésicule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exosome_(v%C3%A9sicule)</t>
+          <t>Exosome_(vésicule)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les exosomes sont des vésicules de 30  à   90 nm[1], qui sont déversées par une cellule dans son environnement. À la différence des ectosomes, ils relarguent directement leur contenu intracellulaire dans le milieu extracellulaire (les ectosomes les relarguent empaquetés à l'intérieur de vésicules plus ou moins durables).
-Ils ont été décrits pour la première fois en 1983[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exosomes sont des vésicules de 30  à   90 nm, qui sont déversées par une cellule dans son environnement. À la différence des ectosomes, ils relarguent directement leur contenu intracellulaire dans le milieu extracellulaire (les ectosomes les relarguent empaquetés à l'intérieur de vésicules plus ou moins durables).
+Ils ont été décrits pour la première fois en 1983.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exosome_(v%C3%A9sicule)</t>
+          <t>Exosome_(vésicule)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils peuvent être formés par tous les types cellulaires et notamment par les lymphocytes, les plaquettes, les mastocytes, les  cellules dendritiques, les cellules souches, les astrocytes ou les cellules tumorales. Les exosomes sont formés à partir des endosomes tardifs : la membrane endosomale s'invagine et il y a formation de vésicules dans ce compartiment. Cette structure est appelée corps multivésiculaire[3],[4]. L'endosome peut ensuite aller fusionner avec le lysosome ce qui aboutira à sa dégradation; ou alors, l'endosome peut fusionner avec la membrane plasmique et cette fusion permet la libération des exosomes dans l'espace extracellulaire. Les exosomes contiennent différents constituants tels que des acides nucléiques et des protéines.  Ces protéines se retrouvent dans le cytosol  ou les compartiments endosomaux, jamais dans le réticulum endoplasmique,  l'appareil de Golgi, les mitochondries ou le noyau[5].  
-Les exosomes peuvent circuler dans le sang et jouer ainsi un rôle à distance de leur lieu de production[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent être formés par tous les types cellulaires et notamment par les lymphocytes, les plaquettes, les mastocytes, les  cellules dendritiques, les cellules souches, les astrocytes ou les cellules tumorales. Les exosomes sont formés à partir des endosomes tardifs : la membrane endosomale s'invagine et il y a formation de vésicules dans ce compartiment. Cette structure est appelée corps multivésiculaire,. L'endosome peut ensuite aller fusionner avec le lysosome ce qui aboutira à sa dégradation; ou alors, l'endosome peut fusionner avec la membrane plasmique et cette fusion permet la libération des exosomes dans l'espace extracellulaire. Les exosomes contiennent différents constituants tels que des acides nucléiques et des protéines.  Ces protéines se retrouvent dans le cytosol  ou les compartiments endosomaux, jamais dans le réticulum endoplasmique,  l'appareil de Golgi, les mitochondries ou le noyau.  
+Les exosomes peuvent circuler dans le sang et jouer ainsi un rôle à distance de leur lieu de production.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exosome_(v%C3%A9sicule)</t>
+          <t>Exosome_(vésicule)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les exosomes servent de véhicules de transport et d'expulsion de composants cellulaires. Les exosomes assurent les mêmes fonctions que leur cellule parentale. En outre, ils servent à la communication cellulaire en transférant des ARN messagers et des microARN[7] et peuvent par exemple jouer un rôle dans l'immunité cellulaire, comme pour le relargage de CMH II[8]. Les virus, comme les VIH utilisent aussi les exosomes à des fins de transport et de camouflage. Ces derniers participent également à la croissance des tumeurs[9] et pourraient contribuer à la genèse de la maladie d'Alzheimer[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exosomes servent de véhicules de transport et d'expulsion de composants cellulaires. Les exosomes assurent les mêmes fonctions que leur cellule parentale. En outre, ils servent à la communication cellulaire en transférant des ARN messagers et des microARN et peuvent par exemple jouer un rôle dans l'immunité cellulaire, comme pour le relargage de CMH II. Les virus, comme les VIH utilisent aussi les exosomes à des fins de transport et de camouflage. Ces derniers participent également à la croissance des tumeurs et pourraient contribuer à la genèse de la maladie d'Alzheimer.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Exosome_(v%C3%A9sicule)</t>
+          <t>Exosome_(vésicule)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Utilisation expérimentale en thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des recherches envisagent l'utilisation d'exosomes contenant des molécules thérapeutiques pour soigner les maladies autoimmunes ou le cancer. Des essais ont été effectuées sur un modèle animal d'hypertension artérielle pulmonaire avec des exosomes issus de cellules stromales du mésenchyme, permettant une amélioration de la maladie[11]. Des essais cliniques sur la souris pour le traitement des cancers du pancréas ont montré des résultats prometteurs en améliorant le taux de survie des souris[12]. Ces recherches utilisent en 2017 des exosomes modifiés génétiquement pour introduire des ARN interférents dans les cellules cancéreuses[13]. En 2006, une expérience impliquant les exosomes mais réalisée par vaccination directe avec de l'ADN plasmidique a été tentée avec succès[14].
-L'un des problèmes est l'obtention et l'isolement des exosomes. les techniques utilisées sont la centrifugation[15], l'ultrafiltration[16] ou l'immunoprécipitation[17].
-Des études récentes ont montré que l'alcalinisation lysosomale par la chloroquine favorise la sécrétion d'exosomes hébergeant l'α-synucléine ainsi que le domaine intracellulaire de l'APP, mais pas les APP-CTF[réf. à confirmer][18],[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des recherches envisagent l'utilisation d'exosomes contenant des molécules thérapeutiques pour soigner les maladies autoimmunes ou le cancer. Des essais ont été effectuées sur un modèle animal d'hypertension artérielle pulmonaire avec des exosomes issus de cellules stromales du mésenchyme, permettant une amélioration de la maladie. Des essais cliniques sur la souris pour le traitement des cancers du pancréas ont montré des résultats prometteurs en améliorant le taux de survie des souris. Ces recherches utilisent en 2017 des exosomes modifiés génétiquement pour introduire des ARN interférents dans les cellules cancéreuses. En 2006, une expérience impliquant les exosomes mais réalisée par vaccination directe avec de l'ADN plasmidique a été tentée avec succès.
+L'un des problèmes est l'obtention et l'isolement des exosomes. les techniques utilisées sont la centrifugation, l'ultrafiltration ou l'immunoprécipitation.
+Des études récentes ont montré que l'alcalinisation lysosomale par la chloroquine favorise la sécrétion d'exosomes hébergeant l'α-synucléine ainsi que le domaine intracellulaire de l'APP, mais pas les APP-CTF[réf. à confirmer],.
 </t>
         </is>
       </c>
